--- a/vehicleplan.xlsx
+++ b/vehicleplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadvi\Documents\GitHub\V2G-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1407C-DA44-4494-A7AF-2C629231ACFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE0401-3069-4B7F-9750-697AA1F6F140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{6C18CA4E-8E16-4EFD-98A4-AD0010013D9F}"/>
+    <workbookView xWindow="7560" yWindow="3990" windowWidth="21600" windowHeight="12735" xr2:uid="{6C18CA4E-8E16-4EFD-98A4-AD0010013D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Battery capacity in kWh</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>time (hr)</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B5C34C-4A0A-4DE6-8BE8-9894332D3D15}">
-  <dimension ref="A2:Y36"/>
+  <dimension ref="A2:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +483,7 @@
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -544,7 +547,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -579,7 +582,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -615,7 +618,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -650,7 +653,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -685,7 +688,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F8">
         <f>SUM(F3:F7)</f>
         <v>745806</v>
@@ -695,7 +698,7 @@
         <v>0.51645145720820684</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>14</v>
       </c>
@@ -712,197 +715,2947 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12">
         <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.03</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.03</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
+        <v>0.21</v>
+      </c>
+      <c r="K13">
+        <v>0.19</v>
+      </c>
+      <c r="L13">
+        <v>0.18</v>
+      </c>
+      <c r="M13">
+        <v>0.27</v>
+      </c>
+      <c r="N13">
+        <v>0.36</v>
+      </c>
+      <c r="O13">
+        <v>0.15</v>
+      </c>
+      <c r="P13">
+        <f>SUM(D13:O13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <v>0.105</v>
+      </c>
+      <c r="K14">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.09</v>
+      </c>
+      <c r="M14">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.18</v>
+      </c>
+      <c r="O14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="E15">
         <v>2</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>18</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E16">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F16">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G16">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J16">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K16">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L16">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M16">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O16">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.15</v>
+      </c>
+      <c r="D17">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E17">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F17">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G17">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I17">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J17">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K17">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L17">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M17">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O17">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+      <c r="D18">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E18">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F18">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G18">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I18">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J18">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K18">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L18">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M18">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O18">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E19">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F19">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G19">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J19">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K19">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L19">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M19">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O19">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E20">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F20">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G20">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J20">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K20">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L20">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M20">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O20">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.35</v>
+      </c>
+      <c r="D21">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E21">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F21">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G21">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J21">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K21">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M21">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O21">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E22">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F22">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G22">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J22">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K22">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L22">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M22">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O22">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.45</v>
+      </c>
+      <c r="D23">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E23">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F23">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G23">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I23">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J23">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K23">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L23">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M23">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O23">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E24">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F24">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G24">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I24">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J24">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K24">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L24">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M24">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O24">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D25">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E25">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F25">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G25">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I25">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J25">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K25">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L25">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M25">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O25">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.6</v>
+      </c>
+      <c r="D26">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E26">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F26">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G26">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I26">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J26">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K26">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L26">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M26">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O26">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.65</v>
+      </c>
+      <c r="D27">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E27">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F27">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G27">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I27">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J27">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K27">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L27">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M27">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O27">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.7</v>
+      </c>
+      <c r="D28">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E28">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F28">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G28">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I28">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J28">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K28">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L28">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M28">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O28">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0.75</v>
+      </c>
+      <c r="D29">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E29">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F29">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G29">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J29">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K29">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L29">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M29">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O29">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E30">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F30">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G30">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I30">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J30">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K30">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L30">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M30">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O30">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.85</v>
+      </c>
+      <c r="D31">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E31">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F31">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G31">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I31">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J31">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K31">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L31">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M31">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N31">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O31">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+      <c r="D32">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E32">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F32">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G32">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I32">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J32">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K32">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L32">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M32">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O32">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.95</v>
+      </c>
+      <c r="D33">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E33">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="F33">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G33">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="H33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I33">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J33">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K33">
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L33">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M33">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="N33">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O33">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
         <v>6</v>
       </c>
-      <c r="I15">
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
+      <c r="K40">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>16</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>20</v>
+      </c>
+      <c r="O40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.1</v>
+      </c>
+      <c r="D41">
+        <f>D16*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:O41" si="3">E16*12000</f>
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.15</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:O42" si="4">D17*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:O43" si="5">D18*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.25</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:O44" si="6">D19*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:O45" si="7">D20*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0.35</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:O46" si="8">D21*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="8"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:O47" si="9">D22*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="9"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0.45</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:O48" si="10">D23*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="10"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="10"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:O49" si="11">D24*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="11"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="11"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="11"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:O50" si="12">D25*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="12"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="12"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="12"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0.6</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:O51" si="13">D26*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="13"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="13"/>
+        <v>57</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="13"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="13"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0.65</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:O52" si="14">D27*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="14"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="14"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="14"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0.7</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:O53" si="15">D28*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="15"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="15"/>
+        <v>57</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="15"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="15"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="15"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0.75</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:O54" si="16">D29*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="16"/>
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="16"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="16"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="16"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0.8</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:O55" si="17">D30*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="17"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="17"/>
+        <v>57</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="17"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="17"/>
+        <v>81</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="17"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0.85</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:O56" si="18">D31*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="18"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="18"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="18"/>
+        <v>81</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="18"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0.9</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:O57" si="19">D32*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="19"/>
+        <v>90</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="19"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="19"/>
+        <v>57</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="19"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="19"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>0.95</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:O58" si="20">D33*12000</f>
+        <v>21</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="20"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="20"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="20"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="20"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
         <v>8</v>
       </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="L15">
+      <c r="I61">
         <v>10</v>
       </c>
-      <c r="M15">
-        <v>11</v>
-      </c>
-      <c r="N15">
+      <c r="J61">
         <v>12</v>
       </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15">
+      <c r="K61">
         <v>14</v>
       </c>
-      <c r="Q15">
-        <v>15</v>
-      </c>
-      <c r="R15">
+      <c r="L61">
         <v>16</v>
       </c>
-      <c r="S15">
-        <v>17</v>
-      </c>
-      <c r="T15">
+      <c r="M61">
         <v>18</v>
       </c>
-      <c r="U15">
-        <v>19</v>
-      </c>
-      <c r="V15">
+      <c r="N61">
         <v>20</v>
       </c>
-      <c r="W15">
+      <c r="O61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0.1</v>
+      </c>
+      <c r="D62">
+        <f>ROUND(D41,0)</f>
         <v>21</v>
       </c>
-      <c r="X15">
-        <v>22</v>
-      </c>
-      <c r="Y15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E62">
+        <f t="shared" ref="E62:O62" si="21">ROUND(E41,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="21"/>
+        <v>60</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="21"/>
+        <v>57</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="21"/>
+        <v>54</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="21"/>
+        <v>81</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="21"/>
+        <v>108</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="P62">
+        <f>SUM(D62:O62)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C63">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="D63">
+        <f t="shared" ref="D63:O63" si="22">ROUND(D42,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="22"/>
+        <v>63</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="22"/>
+        <v>57</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="22"/>
+        <v>54</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="22"/>
+        <v>81</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="22"/>
+        <v>108</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ref="P63:P79" si="23">SUM(D63:O63)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C64">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="D64">
+        <f t="shared" ref="D64:O64" si="24">ROUND(D43,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="24"/>
+        <v>57</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="24"/>
+        <v>54</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="24"/>
+        <v>81</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="24"/>
+        <v>108</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C65">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="D65">
+        <f t="shared" ref="D65:O65" si="25">ROUND(D44,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="25"/>
+        <v>63</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="25"/>
+        <v>57</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="25"/>
+        <v>81</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="25"/>
+        <v>108</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C66">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="D66">
+        <f t="shared" ref="D66:O66" si="26">ROUND(D45,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="26"/>
+        <v>60</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="26"/>
+        <v>90</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="26"/>
+        <v>63</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="26"/>
+        <v>57</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="26"/>
+        <v>81</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="26"/>
+        <v>108</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="26"/>
+        <v>45</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C67">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="D67">
+        <f t="shared" ref="D67:O67" si="27">ROUND(D46,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="27"/>
+        <v>60</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="27"/>
+        <v>63</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="27"/>
+        <v>57</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="27"/>
+        <v>54</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="27"/>
+        <v>81</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C68">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="D68">
+        <f t="shared" ref="D68:O68" si="28">ROUND(D47,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="28"/>
+        <v>90</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="28"/>
+        <v>63</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="28"/>
+        <v>57</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="28"/>
+        <v>81</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="28"/>
+        <v>108</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C69">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="D69">
+        <f t="shared" ref="D69:O69" si="29">ROUND(D48,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="29"/>
+        <v>90</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="29"/>
+        <v>63</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="29"/>
+        <v>57</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="29"/>
+        <v>81</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="29"/>
+        <v>108</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C70">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="D70">
+        <f t="shared" ref="D70:O70" si="30">ROUND(D49,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="30"/>
+        <v>60</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="30"/>
+        <v>90</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="30"/>
+        <v>63</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="30"/>
+        <v>57</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="30"/>
+        <v>54</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="30"/>
+        <v>81</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="30"/>
+        <v>108</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="30"/>
+        <v>45</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C71">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="D71">
+        <f t="shared" ref="D71:O71" si="31">ROUND(D50,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="31"/>
+        <v>60</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="31"/>
+        <v>90</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="31"/>
+        <v>63</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="31"/>
+        <v>57</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="31"/>
+        <v>54</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="31"/>
+        <v>81</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="31"/>
+        <v>108</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="31"/>
+        <v>45</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C72">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="D72">
+        <f t="shared" ref="D72:O72" si="32">ROUND(D51,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="32"/>
+        <v>60</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="32"/>
+        <v>90</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="32"/>
+        <v>63</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="32"/>
+        <v>57</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="32"/>
+        <v>54</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="32"/>
+        <v>81</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="32"/>
+        <v>108</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="32"/>
+        <v>45</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C73">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="D73">
+        <f t="shared" ref="D73:O73" si="33">ROUND(D52,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="33"/>
+        <v>60</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="33"/>
+        <v>90</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="33"/>
+        <v>63</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="33"/>
+        <v>57</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="33"/>
+        <v>81</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="33"/>
+        <v>108</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="33"/>
+        <v>45</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C74">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="D74">
+        <f t="shared" ref="D74:O74" si="34">ROUND(D53,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="34"/>
+        <v>60</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="34"/>
+        <v>90</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="34"/>
+        <v>63</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="34"/>
+        <v>57</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="34"/>
+        <v>54</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="34"/>
+        <v>81</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="34"/>
+        <v>108</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="34"/>
+        <v>45</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C75">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="D75">
+        <f t="shared" ref="D75:O75" si="35">ROUND(D54,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="35"/>
+        <v>60</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="35"/>
+        <v>90</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="35"/>
+        <v>63</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="35"/>
+        <v>57</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="35"/>
+        <v>54</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="35"/>
+        <v>81</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="35"/>
+        <v>108</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="35"/>
+        <v>45</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C76">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="D76">
+        <f t="shared" ref="D76:O76" si="36">ROUND(D55,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="36"/>
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="36"/>
+        <v>60</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="36"/>
+        <v>90</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="36"/>
+        <v>63</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="36"/>
+        <v>57</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="36"/>
+        <v>54</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="36"/>
+        <v>81</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="36"/>
+        <v>108</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="36"/>
+        <v>45</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C77">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="D77">
+        <f t="shared" ref="D77:O77" si="37">ROUND(D56,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="37"/>
+        <v>60</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="37"/>
+        <v>90</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="37"/>
+        <v>63</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="37"/>
+        <v>57</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="37"/>
+        <v>54</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="37"/>
+        <v>81</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="37"/>
+        <v>108</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="37"/>
+        <v>45</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C78">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="D78">
+        <f t="shared" ref="D78:O78" si="38">ROUND(D57,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="38"/>
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="38"/>
+        <v>60</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="38"/>
+        <v>90</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="38"/>
+        <v>63</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="38"/>
+        <v>57</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="38"/>
+        <v>54</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="38"/>
+        <v>81</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="38"/>
+        <v>108</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C79">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
+      <c r="D79">
+        <f t="shared" ref="D79:O79" si="39">ROUND(D58,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="39"/>
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="39"/>
+        <v>9</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="39"/>
+        <v>60</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="39"/>
+        <v>90</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="39"/>
+        <v>63</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="39"/>
+        <v>57</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="39"/>
+        <v>54</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="39"/>
+        <v>81</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="39"/>
+        <v>108</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="39"/>
+        <v>45</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="23"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <f>SUM(P62:P79)</f>
+        <v>10800</v>
       </c>
     </row>
   </sheetData>

--- a/vehicleplan.xlsx
+++ b/vehicleplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadvi\Documents\GitHub\V2G-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE0401-3069-4B7F-9750-697AA1F6F140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D3A95-268E-4203-8340-354AFD2D3005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="3990" windowWidth="21600" windowHeight="12735" xr2:uid="{6C18CA4E-8E16-4EFD-98A4-AD0010013D9F}"/>
+    <workbookView xWindow="5760" yWindow="1500" windowWidth="21600" windowHeight="13155" xr2:uid="{6C18CA4E-8E16-4EFD-98A4-AD0010013D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Battery capacity in kWh</t>
   </si>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B5C34C-4A0A-4DE6-8BE8-9894332D3D15}">
   <dimension ref="A2:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>0.5</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>0.55000000000000004</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>0.6</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>0.65</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>0.7</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>0.75</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>0.8</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>0.85</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>0.9</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>0.95</v>
       </c>
@@ -2585,7 +2585,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2629,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.39741199999999999</v>
+      </c>
       <c r="C62">
         <v>0.1</v>
       </c>
@@ -2683,7 +2689,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.116697</v>
+      </c>
       <c r="C63">
         <v>0.15</v>
       </c>
@@ -2740,7 +2749,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7.8047000000000005E-2</v>
+      </c>
       <c r="C64">
         <v>0.2</v>
       </c>
@@ -2797,7 +2809,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.21759700000000001</v>
+      </c>
       <c r="C65">
         <v>0.25</v>
       </c>
@@ -2854,7 +2869,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.190248</v>
+      </c>
       <c r="C66">
         <v>0.3</v>
       </c>
@@ -2911,7 +2929,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>0.35</v>
       </c>
@@ -2968,7 +2986,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>0.4</v>
       </c>
@@ -3025,7 +3043,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>0.45</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>0.5</v>
       </c>
@@ -3139,7 +3157,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>0.55000000000000004</v>
       </c>
@@ -3196,7 +3214,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>0.6</v>
       </c>
@@ -3253,7 +3271,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>0.65</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>0.7</v>
       </c>
@@ -3367,7 +3385,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>0.75</v>
       </c>
@@ -3424,7 +3442,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>0.8</v>
       </c>
@@ -3481,7 +3499,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>0.85</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>0.9</v>
       </c>
@@ -3595,7 +3613,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>0.95</v>
       </c>
@@ -3652,7 +3670,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P80">
         <f>SUM(P62:P79)</f>
         <v>10800</v>
